--- a/dataset/region/sexo_edad_coquimbo.xlsx
+++ b/dataset/region/sexo_edad_coquimbo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB784EA-E6E7-4698-8BD6-ACEB57D07056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81CE703-CD3D-4C86-986C-9E44D151D845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E6C02B3-BC10-46FC-A72D-B5493BAD76AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E6C02B3-BC10-46FC-A72D-B5493BAD76AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -194,25 +194,25 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,78 +531,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7034641-2519-4B7A-87AA-CA9838C183C7}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2">
         <v>2005</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>2006</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>2007</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>2008</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <v>2009</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>2010</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <v>2011</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>2012</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>2013</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <v>2014</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <v>2015</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="3">
         <v>2016</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="3">
         <v>2017</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="3">
         <v>2018</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="3">
         <v>2019</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="3">
         <v>2020</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="3">
         <v>2021</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -667,7 +667,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -732,7 +732,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>4604</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -862,7 +862,7 @@
         <v>7361</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -927,7 +927,7 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>19395</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>6937</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>20165</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>8953</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>14298</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>11391</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>39560</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>7249</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>15</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>16755</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>6426</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>9078</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>15</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>15</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>15</v>
       </c>

--- a/dataset/region/sexo_edad_coquimbo.xlsx
+++ b/dataset/region/sexo_edad_coquimbo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81CE703-CD3D-4C86-986C-9E44D151D845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616BB547-62F1-4447-885D-75E0B51D00DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E6C02B3-BC10-46FC-A72D-B5493BAD76AB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
   <si>
     <t>Tipo Participante</t>
   </si>
@@ -85,25 +85,72 @@
   <si>
     <t>VICTIMARIO</t>
   </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -117,6 +164,12 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="GobCL"/>
     </font>
   </fonts>
   <fills count="4">
@@ -135,11 +188,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1D89C8"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF1D89C8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,45 +228,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,3193 +566,3193 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U49"/>
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
-        <v>2005</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2006</v>
-      </c>
-      <c r="F1" s="3">
-        <v>2007</v>
-      </c>
-      <c r="G1" s="3">
-        <v>2008</v>
-      </c>
-      <c r="H1" s="3">
-        <v>2009</v>
-      </c>
-      <c r="I1" s="3">
-        <v>2010</v>
-      </c>
-      <c r="J1" s="3">
-        <v>2011</v>
-      </c>
-      <c r="K1" s="3">
-        <v>2012</v>
-      </c>
-      <c r="L1" s="3">
-        <v>2013</v>
-      </c>
-      <c r="M1" s="3">
-        <v>2014</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2016</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2017</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>2018</v>
-      </c>
-      <c r="R1" s="3">
-        <v>2019</v>
-      </c>
-      <c r="S1" s="3">
-        <v>2020</v>
-      </c>
-      <c r="T1" s="3">
-        <v>2021</v>
-      </c>
-      <c r="U1" s="3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>147</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>243</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>353</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>364</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>329</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>369</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>377</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>372</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="3">
         <v>328</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>347</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <v>272</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="3">
         <v>305</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="3">
         <v>327</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="3">
         <v>328</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="3">
         <v>385</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="3">
         <v>314</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="3">
         <v>328</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="3">
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>315</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>459</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>673</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>713</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>646</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>662</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>698</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>668</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>624</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>598</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>591</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="3">
         <v>580</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="3">
         <v>553</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="3">
         <v>540</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="3">
         <v>531</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="3">
         <v>385</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="3">
         <v>360</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="3">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>2787</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>2881</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>3973</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>4662</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>4842</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>4872</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>5257</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>5608</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>5381</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>5271</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>4855</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="3">
         <v>4949</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="3">
         <v>4909</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="3">
         <v>4808</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="3">
         <v>5102</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="3">
         <v>4221</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="3">
         <v>4138</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="3">
         <v>4604</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>4063</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>3970</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>4994</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>5536</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>5907</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>5777</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>5916</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>6415</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>6219</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>6100</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>5708</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="3">
         <v>5867</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="3">
         <v>6162</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="3">
         <v>5992</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="3">
         <v>6156</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="3">
         <v>5727</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="3">
         <v>5963</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="3">
         <v>7361</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>2203</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>2224</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>2810</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>3240</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>3661</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>3630</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>3977</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>4276</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>3967</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>4034</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="3">
         <v>3853</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="3">
         <v>4001</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="3">
         <v>4240</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="3">
         <v>3935</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="3">
         <v>4410</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="3">
         <v>4002</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="3">
         <v>4084</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="3">
         <v>5073</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>400</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>385</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>501</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>572</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>635</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>588</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>745</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>771</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>717</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>718</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="3">
         <v>717</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="3">
         <v>789</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="3">
         <v>883</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="3">
         <v>880</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="3">
         <v>963</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="3">
         <v>906</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="3">
         <v>942</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="3">
         <v>1242</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="6">
-        <v>3</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
         <v>7</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>8</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>10</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>5</v>
       </c>
-      <c r="M8" s="6">
-        <v>3</v>
-      </c>
-      <c r="N8" s="6">
-        <v>3</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="M8" s="3">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
         <v>7</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="3">
         <v>4</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="3">
         <v>2</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="3">
         <v>9</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="3">
         <v>9</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="3">
         <v>4</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>9915</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>10163</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>13307</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>15088</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>16023</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>15905</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <v>16978</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>18120</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <v>17241</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="4">
         <v>17071</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="4">
         <v>15999</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="4">
         <v>16498</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="4">
         <v>17078</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="4">
         <v>16485</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="4">
         <v>17556</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="4">
         <v>15564</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="4">
         <v>15819</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="4">
         <v>19395</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>170</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>266</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>458</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>405</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>402</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>416</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>451</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>403</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>359</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>313</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>282</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="3">
         <v>258</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="3">
         <v>278</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="3">
         <v>277</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="3">
         <v>325</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="3">
         <v>275</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="3">
         <v>233</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="3">
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>341</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>498</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>685</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>742</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>686</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>676</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>707</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>644</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="3">
         <v>549</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="3">
         <v>559</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="3">
         <v>501</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="3">
         <v>557</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="3">
         <v>435</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="3">
         <v>440</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="3">
         <v>450</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="3">
         <v>269</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="3">
         <v>226</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="3">
         <v>488</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>2670</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>2755</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>3734</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>4758</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>5486</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>5801</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>5731</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>6339</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>5620</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>5575</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="3">
         <v>4724</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="3">
         <v>4738</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="3">
         <v>4722</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="3">
         <v>4414</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="3">
         <v>4618</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="3">
         <v>3689</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="3">
         <v>3581</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="3">
         <v>4349</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>3790</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>3554</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>4393</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>5219</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>5938</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>5667</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>6022</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>6577</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>6554</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <v>6544</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <v>5822</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="3">
         <v>5969</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="3">
         <v>6196</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="3">
         <v>5991</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="3">
         <v>6352</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="3">
         <v>5527</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="3">
         <v>5425</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="3">
         <v>6937</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>2785</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>2681</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>3219</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>3752</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>4486</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>4652</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>4941</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>5401</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="3">
         <v>5317</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="3">
         <v>5555</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="3">
         <v>5156</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="3">
         <v>5358</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="3">
         <v>5730</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="3">
         <v>5262</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="3">
         <v>5711</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="3">
         <v>4971</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="3">
         <v>4701</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="3">
         <v>6318</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>559</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>607</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>713</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>827</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>923</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>952</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>1124</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>1160</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <v>1108</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <v>1236</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <v>1103</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="3">
         <v>1238</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="3">
         <v>1334</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="3">
         <v>1321</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="3">
         <v>1493</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="3">
         <v>1213</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="3">
         <v>1351</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="3">
         <v>1736</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="6">
-        <v>3</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>7</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>6</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="3">
         <v>6</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="3">
         <v>10</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <v>5</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="3">
         <v>5</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="3">
         <v>5</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="3">
         <v>4</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="3">
         <v>8</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="3">
         <v>7</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="3">
         <v>10</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>10315</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>10361</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <v>13205</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>15705</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>17921</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>18169</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="4">
         <v>18983</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <v>20530</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
         <v>19513</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="4">
         <v>19792</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="4">
         <v>17593</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="4">
         <v>18123</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="4">
         <v>18700</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="4">
         <v>17709</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="4">
         <v>18957</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="4">
         <v>15951</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="4">
         <v>15527</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="4">
         <v>20165</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>317</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>509</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>811</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>769</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>731</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>785</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>828</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="3">
         <v>775</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="3">
         <v>687</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="3">
         <v>660</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="3">
         <v>554</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="3">
         <v>563</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="3">
         <v>605</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="3">
         <v>605</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="3">
         <v>710</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="3">
         <v>589</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="3">
         <v>561</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="3">
         <v>807</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>656</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>957</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>1358</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>1455</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <v>1332</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>1338</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>1405</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>1312</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="3">
         <v>1173</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="3">
         <v>1157</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="3">
         <v>1092</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="3">
         <v>1137</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="3">
         <v>988</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="3">
         <v>980</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="3">
         <v>981</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="3">
         <v>654</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="3">
         <v>586</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="3">
         <v>1114</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>5457</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>5636</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>7707</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>9420</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <v>10328</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <v>10673</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>10988</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <v>11947</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="3">
         <v>11001</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="3">
         <v>10846</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="3">
         <v>9579</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="3">
         <v>9687</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="3">
         <v>9631</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="3">
         <v>9222</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="3">
         <v>9720</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="3">
         <v>7910</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="3">
         <v>7719</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="3">
         <v>8953</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <v>7853</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>7524</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>9387</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>10755</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>11845</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>11444</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>11938</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>12992</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="3">
         <v>12773</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="3">
         <v>12644</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="3">
         <v>11530</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="3">
         <v>11836</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="3">
         <v>12358</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="3">
         <v>11983</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="3">
         <v>12508</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="3">
         <v>11254</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="3">
         <v>11388</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="3">
         <v>14298</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <v>4988</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>4905</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>6029</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>6992</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <v>8147</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <v>8282</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="3">
         <v>8918</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="3">
         <v>9677</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="3">
         <v>9284</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="3">
         <v>9589</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="3">
         <v>9009</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="3">
         <v>9359</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="3">
         <v>9970</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="3">
         <v>9197</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="3">
         <v>10121</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="3">
         <v>8973</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="3">
         <v>8785</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="3">
         <v>11391</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <v>959</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>992</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>1214</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="3">
         <v>1399</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="3">
         <v>1558</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="3">
         <v>1540</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="3">
         <v>1869</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="3">
         <v>1931</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="3">
         <v>1825</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="3">
         <v>1954</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="3">
         <v>1820</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="3">
         <v>2027</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="3">
         <v>2217</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="3">
         <v>2201</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="3">
         <v>2456</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="3">
         <v>2119</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="3">
         <v>2293</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="3">
         <v>2978</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="6">
-        <v>3</v>
-      </c>
-      <c r="H24" s="6">
-        <v>3</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
         <v>12</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="3">
         <v>15</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="3">
         <v>16</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="3">
         <v>11</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="3">
         <v>13</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="3">
         <v>8</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="3">
         <v>12</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="3">
         <v>9</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="3">
         <v>6</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="3">
         <v>17</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="3">
         <v>16</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="3">
         <v>14</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>20230</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="4">
         <v>20524</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="4">
         <v>26512</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>30793</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>33944</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <v>34074</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="4">
         <v>35961</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="4">
         <v>38650</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="4">
         <v>36754</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="4">
         <v>36863</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="4">
         <v>33592</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="4">
         <v>34621</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="4">
         <v>35778</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="4">
         <v>34194</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="4">
         <v>36513</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="4">
         <v>31515</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="4">
         <v>31346</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="4">
         <v>39560</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>34</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>44</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>27</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>20</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <v>31</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <v>25</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="3">
         <v>27</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="3">
         <v>36</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="3">
         <v>28</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="3">
         <v>19</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="3">
         <v>14</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="3">
         <v>14</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="3">
         <v>13</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="3">
         <v>11</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="3">
         <v>13</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="3">
         <v>10</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="3">
         <v>10</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>255</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>224</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>263</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <v>263</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <v>330</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="3">
         <v>280</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="3">
         <v>365</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="3">
         <v>321</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="3">
         <v>320</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="3">
         <v>309</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="3">
         <v>301</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="3">
         <v>284</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="3">
         <v>264</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q27" s="3">
         <v>335</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="3">
         <v>305</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="3">
         <v>163</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="3">
         <v>103</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="3">
         <v>1678</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <v>1646</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="3">
         <v>1450</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="3">
         <v>1434</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <v>1838</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="3">
         <v>2062</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="3">
         <v>2041</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="3">
         <v>1923</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="3">
         <v>1613</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="3">
         <v>1762</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="3">
         <v>1485</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="3">
         <v>1767</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="3">
         <v>1926</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="3">
         <v>2245</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="3">
         <v>2251</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="3">
         <v>1893</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="3">
         <v>1752</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="3">
         <v>1477</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="3">
         <v>830</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <v>800</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>780</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="3">
         <v>857</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="3">
         <v>1087</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="3">
         <v>1213</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="3">
         <v>1299</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="3">
         <v>1293</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="3">
         <v>1110</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="3">
         <v>1375</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="3">
         <v>1300</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="3">
         <v>1442</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="3">
         <v>1715</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="3">
         <v>2086</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="3">
         <v>2177</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="3">
         <v>2107</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="3">
         <v>1873</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="3">
         <v>1829</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="3">
         <v>275</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>284</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>333</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="3">
         <v>345</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="3">
         <v>508</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <v>550</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="3">
         <v>636</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="3">
         <v>605</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="3">
         <v>632</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="3">
         <v>640</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="3">
         <v>616</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="3">
         <v>676</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="3">
         <v>778</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="3">
         <v>903</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="3">
         <v>1046</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="3">
         <v>894</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="3">
         <v>733</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="3">
         <v>728</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
         <v>23</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="3">
         <v>25</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <v>46</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="3">
         <v>66</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="3">
         <v>76</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="3">
         <v>54</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="3">
         <v>68</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="3">
         <v>63</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="3">
         <v>48</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="3">
         <v>66</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="3">
         <v>73</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="3">
         <v>88</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="3">
         <v>100</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="3">
         <v>119</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="3">
         <v>89</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="3">
         <v>81</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="3">
         <v>68</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="6">
-        <v>3</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>1</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="6">
-        <v>3</v>
-      </c>
-      <c r="K32" s="6">
+      <c r="J32" s="3">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="3">
         <v>1</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="3">
         <v>1</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="3">
         <v>1</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="3">
         <v>1</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <v>3095</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="4">
         <v>3023</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="4">
         <v>2902</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="4">
         <v>2986</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="4">
         <v>3870</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <v>4184</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="4">
         <v>4439</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="4">
         <v>4241</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="4">
         <v>3751</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="4">
         <v>4172</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="4">
         <v>3789</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="4">
         <v>4272</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="4">
         <v>4796</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="4">
         <v>5700</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="4">
         <v>5881</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="4">
         <v>5148</v>
       </c>
-      <c r="T33" s="7">
+      <c r="T33" s="4">
         <v>4540</v>
       </c>
-      <c r="U33" s="7">
+      <c r="U33" s="4">
         <v>4340</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="3">
         <v>145</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <v>102</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="3">
         <v>117</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="3">
         <v>89</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="3">
         <v>61</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="3">
         <v>71</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="3">
         <v>99</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="3">
         <v>72</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="3">
         <v>51</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="3">
         <v>32</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="3">
         <v>21</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="3">
         <v>28</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="3">
         <v>12</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34" s="3">
         <v>17</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="3">
         <v>18</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="3">
         <v>16</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="3">
         <v>8</v>
       </c>
-      <c r="U34" s="6">
+      <c r="U34" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="3">
         <v>1608</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="3">
         <v>1489</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="3">
         <v>1645</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="3">
         <v>1546</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="3">
         <v>1371</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="3">
         <v>1556</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="3">
         <v>1506</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="3">
         <v>1209</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="3">
         <v>1112</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="3">
         <v>963</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="3">
         <v>922</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="3">
         <v>926</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q35" s="3">
         <v>794</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="3">
         <v>829</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35" s="3">
         <v>450</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="3">
         <v>356</v>
       </c>
-      <c r="U35" s="6">
+      <c r="U35" s="3">
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="3">
         <v>13104</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="3">
         <v>11102</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="3">
         <v>10005</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="3">
         <v>9100</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="3">
         <v>11062</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="3">
         <v>11457</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="3">
         <v>10116</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="3">
         <v>8804</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="3">
         <v>7732</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="3">
         <v>7844</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="3">
         <v>7202</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="3">
         <v>7342</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="3">
         <v>7782</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36" s="3">
         <v>9352</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="3">
         <v>9018</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="3">
         <v>6768</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="3">
         <v>5841</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U36" s="3">
         <v>4949</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="3">
         <v>8998</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="3">
         <v>7325</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="3">
         <v>5894</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="3">
         <v>5269</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="3">
         <v>6827</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="3">
         <v>6736</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="3">
         <v>6685</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="3">
         <v>6135</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="3">
         <v>5893</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="3">
         <v>6195</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="3">
         <v>5607</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="3">
         <v>6228</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="3">
         <v>7482</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37" s="3">
         <v>9031</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="3">
         <v>9851</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="3">
         <v>8212</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="3">
         <v>6994</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" s="3">
         <v>7249</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="3">
         <v>3711</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="3">
         <v>3005</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="3">
         <v>2355</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="3">
         <v>2290</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="3">
         <v>3060</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="3">
         <v>3380</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="3">
         <v>3283</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="3">
         <v>2975</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="3">
         <v>2871</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="3">
         <v>3138</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="3">
         <v>2808</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="3">
         <v>3057</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="3">
         <v>3691</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38" s="3">
         <v>4444</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="3">
         <v>4601</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S38" s="3">
         <v>3727</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="3">
         <v>3375</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="3">
         <v>3541</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="3">
         <v>257</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="3">
         <v>180</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="3">
         <v>173</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="3">
         <v>281</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="3">
         <v>547</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="3">
         <v>306</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="3">
         <v>340</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="3">
         <v>333</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="3">
         <v>316</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="3">
         <v>292</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="3">
         <v>291</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="3">
         <v>313</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="3">
         <v>400</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q39" s="3">
         <v>484</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39" s="3">
         <v>406</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="3">
         <v>368</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="3">
         <v>363</v>
       </c>
-      <c r="U39" s="6">
+      <c r="U39" s="3">
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="3">
         <v>13</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="3">
         <v>8</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="3">
         <v>17</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="3">
         <v>9</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="3">
         <v>0</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="3">
         <v>0</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="3">
         <v>8</v>
       </c>
-      <c r="K40" s="6">
-        <v>3</v>
-      </c>
-      <c r="L40" s="6">
+      <c r="K40" s="3">
+        <v>3</v>
+      </c>
+      <c r="L40" s="3">
         <v>1</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="3">
         <v>1</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="3">
         <v>1</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="3">
         <v>0</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="3">
         <v>0</v>
       </c>
-      <c r="Q40" s="6">
-        <v>3</v>
-      </c>
-      <c r="R40" s="6">
-        <v>3</v>
-      </c>
-      <c r="S40" s="6">
+      <c r="Q40" s="3">
+        <v>3</v>
+      </c>
+      <c r="R40" s="3">
+        <v>3</v>
+      </c>
+      <c r="S40" s="3">
         <v>2</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="3">
         <v>0</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="4">
         <v>27728</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="4">
         <v>23330</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="4">
         <v>20050</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="4">
         <v>18683</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="4">
         <v>23103</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <v>23321</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="4">
         <v>22087</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="4">
         <v>19828</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="4">
         <v>18073</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="4">
         <v>18614</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="4">
         <v>16893</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="4">
         <v>17890</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="4">
         <v>20293</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="4">
         <v>24125</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="4">
         <v>24726</v>
       </c>
-      <c r="S41" s="7">
+      <c r="S41" s="4">
         <v>19543</v>
       </c>
-      <c r="T41" s="7">
+      <c r="T41" s="4">
         <v>16937</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="4">
         <v>16755</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="3">
         <v>179</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="3">
         <v>146</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="3">
         <v>144</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="3">
         <v>109</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="3">
         <v>92</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="3">
         <v>96</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="3">
         <v>126</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="3">
         <v>108</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="3">
         <v>79</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="3">
         <v>51</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="3">
         <v>35</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="3">
         <v>42</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="3">
         <v>25</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="3">
         <v>28</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="3">
         <v>31</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="3">
         <v>26</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="3">
         <v>18</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="3">
         <v>1755</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="3">
         <v>1832</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <v>1752</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="3">
         <v>1908</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="3">
         <v>1876</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="3">
         <v>1651</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="3">
         <v>1921</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="3">
         <v>1827</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="3">
         <v>1529</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="3">
         <v>1421</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="3">
         <v>1264</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="3">
         <v>1206</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="3">
         <v>1190</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="Q43" s="3">
         <v>1129</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="3">
         <v>1134</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="3">
         <v>613</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="3">
         <v>459</v>
       </c>
-      <c r="U43" s="6">
+      <c r="U43" s="3">
         <v>791</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="3">
         <v>14782</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="3">
         <v>12748</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="3">
         <v>11455</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="3">
         <v>10534</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="3">
         <v>12900</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="3">
         <v>13519</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="3">
         <v>12157</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="3">
         <v>10727</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="3">
         <v>9345</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="3">
         <v>9606</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="3">
         <v>8687</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="3">
         <v>9109</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44" s="3">
         <v>9708</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="3">
         <v>11597</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="3">
         <v>11269</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="3">
         <v>8661</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="3">
         <v>7593</v>
       </c>
-      <c r="U44" s="6">
+      <c r="U44" s="3">
         <v>6426</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="3">
         <v>9828</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="3">
         <v>8125</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="3">
         <v>6674</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="3">
         <v>6126</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="3">
         <v>7914</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="3">
         <v>7949</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="3">
         <v>7984</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="3">
         <v>7428</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="3">
         <v>7003</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="3">
         <v>7570</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="3">
         <v>6907</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="3">
         <v>7670</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45" s="3">
         <v>9197</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="Q45" s="3">
         <v>11117</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="3">
         <v>12028</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="3">
         <v>10319</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="3">
         <v>8867</v>
       </c>
-      <c r="U45" s="6">
+      <c r="U45" s="3">
         <v>9078</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="3">
         <v>3986</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="3">
         <v>3289</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="3">
         <v>2688</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="3">
         <v>2635</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="3">
         <v>3568</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <v>3930</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="3">
         <v>3919</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="3">
         <v>3580</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="3">
         <v>3503</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="3">
         <v>3778</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="3">
         <v>3424</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="3">
         <v>3733</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="3">
         <v>4469</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="3">
         <v>5347</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="3">
         <v>5647</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="3">
         <v>4621</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="3">
         <v>4108</v>
       </c>
-      <c r="U46" s="6">
+      <c r="U46" s="3">
         <v>4269</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="3">
         <v>280</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="3">
         <v>205</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="3">
         <v>219</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="3">
         <v>347</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="3">
         <v>623</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="3">
         <v>360</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="3">
         <v>408</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="3">
         <v>396</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="3">
         <v>364</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="3">
         <v>358</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="3">
         <v>364</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="3">
         <v>401</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="3">
         <v>500</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="Q47" s="3">
         <v>603</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R47" s="3">
         <v>495</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S47" s="3">
         <v>449</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="3">
         <v>431</v>
       </c>
-      <c r="U47" s="6">
+      <c r="U47" s="3">
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="3">
         <v>13</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="3">
         <v>8</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="3">
         <v>20</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="3">
         <v>10</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="3">
         <v>11</v>
       </c>
-      <c r="K48" s="6">
-        <v>3</v>
-      </c>
-      <c r="L48" s="6">
+      <c r="K48" s="3">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3">
         <v>1</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48" s="3">
         <v>2</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="3">
         <v>1</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="3">
         <v>1</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="Q48" s="3">
         <v>4</v>
       </c>
-      <c r="R48" s="6">
-        <v>3</v>
-      </c>
-      <c r="S48" s="6">
+      <c r="R48" s="3">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3">
         <v>2</v>
       </c>
-      <c r="T48" s="6">
+      <c r="T48" s="3">
         <v>1</v>
       </c>
-      <c r="U48" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="U48" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="4">
         <v>30823</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="4">
         <v>26353</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="4">
         <v>22952</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="4">
         <v>21669</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="4">
         <v>26973</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="4">
         <v>27505</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="4">
         <v>26526</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="4">
         <v>24069</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="4">
         <v>21824</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="4">
         <v>22786</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="4">
         <v>20682</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="4">
         <v>22162</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="4">
         <v>25089</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="4">
         <v>29825</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="4">
         <v>30607</v>
       </c>
-      <c r="S49" s="7">
+      <c r="S49" s="4">
         <v>24691</v>
       </c>
-      <c r="T49" s="7">
+      <c r="T49" s="4">
         <v>21477</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="4">
         <v>21095</v>
       </c>
     </row>
